--- a/data/trans_bre/P27-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>13,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-12,82%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 20,97</t>
+          <t>1,95; 29,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 16,5</t>
+          <t>0,49; 20,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 20,17</t>
+          <t>0,77; 17,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 11,96</t>
+          <t>-23,23; 7,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 43,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 38,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 37,49</t>
+          <t>3,46; 78,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 20,09</t>
+          <t>1,07; 48,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 33,09</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 17,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>15,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,57</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,96</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>34,82%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 18,01</t>
+          <t>6,87; 23,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 21,37</t>
+          <t>8,83; 22,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 20,92</t>
+          <t>6,69; 19,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 19,22</t>
+          <t>0,4; 16,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 43,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 52,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 48,27</t>
+          <t>14,73; 59,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 38,88</t>
+          <t>17,92; 53,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 43,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 41,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,54%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,06</t>
+          <t>-4,5; 12,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 14,93</t>
+          <t>0,29; 14,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,37</t>
+          <t>-1,13; 11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 11,98</t>
+          <t>-9,89; 6,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 28,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 33,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 26,1</t>
+          <t>-7,93; 28,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 22,57</t>
+          <t>0,58; 32,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 24,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; 13,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>13,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>26,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32,87%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,7</t>
+          <t>2,78; 16,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,76</t>
+          <t>3,45; 19,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 15,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 11,94</t>
+          <t>5,23; 21,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 30,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 36,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 30,43</t>
+          <t>5,67; 38,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 21,34</t>
+          <t>7,13; 51,03</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 61,45</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,49</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10,23</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 15,12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 15,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 14,34</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 10,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,65; 34,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,28; 35,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 29,29</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 22,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P27-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P27-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,88</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,85</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>27,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,79%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>14,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-12,82%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>14.54431971721227</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.720834740676088</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.38798060436562</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.930820559063605</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.2900276530024474</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1931357920642869</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1542460037558179</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.1218980023757253</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 29,65</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 20,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 17,79</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,23; 7,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,46; 78,2</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 48,28</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 33,09</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-35,91; 17,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.112521738411014</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.174472984670403</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.470449151078913</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.04866416889502</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.05527080789813754</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.004560715967331595</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.02489433761992894</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3564919946522023</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.24821306204481</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.53637044769495</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.17813332424994</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.260032060476915</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.7625339955308847</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.4555401854629218</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3360095814907924</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1795767928088808</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,27</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,74</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>34,82%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>27,5%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 23,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 22,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,69; 19,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 16,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>14,73; 59,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>17,92; 53,76</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 43,61</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 41,3</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>15.20966748164446</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>16.03399885955517</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>13.6229155976021</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.323535956637613</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.3471734620442673</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3595101850395441</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.285244737974805</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2072814933549192</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-3,54%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.384621182515973</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>9.051984409809677</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>7.022652732909998</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.075249822202757</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.1300011231919938</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1830616850387006</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1327871731000872</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.01835969675976594</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 12,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 14,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 11,91</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 6,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,93; 28,87</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 32,89</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 24,47</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-17,31; 13,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.69684467824542</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>22.25807053317116</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>19.87448880705918</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.33160502661653</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.5840828168378682</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5564449296876685</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.4482216932774691</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.437265211967561</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,1</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>20,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>26,9%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>32,87%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.901280688147925</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.01264790481328</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.716000228902407</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.08617499124476</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1213023167864364</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1421537681267242</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.109787368367624</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.04003873012695173</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 16,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 19,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,23; 21,67</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 38,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 51,03</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>11,46; 61,45</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.887008905654796</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2243079695291015</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.147024571968993</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.10260678131097</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.05464218725329385</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.002536255707854772</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.01991858775687307</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1745053949518995</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.6228598248586</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.89368730029732</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.94835642322278</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.191017401182551</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.3735943338090258</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3135669203323609</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2487360172913271</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1316178161354348</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,89</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,23</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>22,41%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>25,65%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>19,61%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>11,32%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 15,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 15,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 14,34</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 10,03</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>11,65; 34,29</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,28; 35,51</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>12,38; 29,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 22,96</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>11.92322272449557</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>11.78476053390289</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.59349951322059</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.031081071568091</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.2557590237572472</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2491804104180624</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2042110995794396</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.04084281525289385</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.433702013918675</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.86089052790938</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.950032853762473</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.337127428846886</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.1316669651917048</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1344945493494881</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1275605731384263</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.07947051122582152</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.62173811600604</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.04524726469322</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.61978037033881</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.92818900252999</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.4094932692728071</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.361279680588301</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3025676675924925</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1479996395113248</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
